--- a/backlog.xlsx
+++ b/backlog.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP i5\Documents\GitHub\PROG5001A2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BC403AB-62B7-4944-9B51-5CD48E07061D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB648D24-412F-49EC-9E97-31CEDFD892B3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="25440" windowHeight="15390" activeTab="1" xr2:uid="{49C32462-D2B8-4175-AE19-832EFB3F644D}"/>
   </bookViews>
   <sheets>
     <sheet name="User stories" sheetId="2" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="67">
   <si>
     <t>Week 9</t>
   </si>
@@ -67,9 +67,6 @@
     <t>User stories</t>
   </si>
   <si>
-    <t>the game board looks like …</t>
-  </si>
-  <si>
     <t>Build the game logic</t>
   </si>
   <si>
@@ -79,9 +76,6 @@
     <t>Priority</t>
   </si>
   <si>
-    <t>to create the snake game</t>
-  </si>
-  <si>
     <t>As a user, I want:</t>
   </si>
   <si>
@@ -139,9 +133,6 @@
     <t>to use arrows key to move</t>
   </si>
   <si>
-    <t>to change the background colour</t>
-  </si>
-  <si>
     <t>to use ESC button through exit the game</t>
   </si>
   <si>
@@ -154,26 +145,95 @@
     <t>game has 1 snack</t>
   </si>
   <si>
-    <t>prey looks like</t>
-  </si>
-  <si>
-    <t>login to play the game</t>
-  </si>
-  <si>
     <t>display the score</t>
   </si>
   <si>
-    <t>snack looks like</t>
-  </si>
-  <si>
     <t>snack increase the lengh after eat prey</t>
+  </si>
+  <si>
+    <t>GUI for the playing snake and prey</t>
+  </si>
+  <si>
+    <t>Prey Logic</t>
+  </si>
+  <si>
+    <t>Game Over Logic</t>
+  </si>
+  <si>
+    <t>Login Logic</t>
+  </si>
+  <si>
+    <t>Score Logic</t>
+  </si>
+  <si>
+    <t>GUI for scores</t>
+  </si>
+  <si>
+    <t>Login Test</t>
+  </si>
+  <si>
+    <t>Snake movement test</t>
+  </si>
+  <si>
+    <t>Snake eating Prey test</t>
+  </si>
+  <si>
+    <t>Changing Score test</t>
+  </si>
+  <si>
+    <t>Game Over test</t>
+  </si>
+  <si>
+    <t>Making YouTube Video</t>
+  </si>
+  <si>
+    <t>Instruction to how to play</t>
+  </si>
+  <si>
+    <t>the game board looks like simple with black back ground colour</t>
+  </si>
+  <si>
+    <t>to create the snake game looks real game</t>
+  </si>
+  <si>
+    <t>snack looks like Green colour</t>
+  </si>
+  <si>
+    <t>login to play the game with user name and password</t>
+  </si>
+  <si>
+    <t>prey looks like emoji</t>
+  </si>
+  <si>
+    <t>read all the details</t>
+  </si>
+  <si>
+    <t>when snack hit the border you will see game over</t>
+  </si>
+  <si>
+    <t>after game over retry option available</t>
+  </si>
+  <si>
+    <t>programmer name illustrated by lable</t>
+  </si>
+  <si>
+    <t>snack speed is medium not fast not even slow</t>
+  </si>
+  <si>
+    <t>size of game baord also looks perfect</t>
+  </si>
+  <si>
+    <t>YOU TUBE LINK</t>
+  </si>
+  <si>
+    <t>https://youtu.be/QlCh7wBPLr4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -206,8 +266,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,6 +291,11 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
       </patternFill>
     </fill>
   </fills>
@@ -251,10 +323,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -335,8 +408,15 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -651,8 +731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1F2A6E6-5A3B-4CAD-BC9F-023E52339F74}">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,7 +760,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="34" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="29"/>
@@ -697,10 +777,10 @@
     </row>
     <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="24" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B4" s="35" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="35"/>
       <c r="D4" s="30"/>
@@ -714,14 +794,14 @@
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="27"/>
       <c r="B6" s="28" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
       <c r="B7" s="6"/>
       <c r="C7" s="25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D7" s="26" t="s">
         <v>12</v>
@@ -732,7 +812,7 @@
         <v>1</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>17</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -740,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>13</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -748,7 +828,7 @@
         <v>3</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
@@ -756,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -764,7 +844,7 @@
         <v>5</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -772,7 +852,7 @@
         <v>6</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -780,7 +860,7 @@
         <v>7</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -788,7 +868,7 @@
         <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -796,7 +876,7 @@
         <v>9</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.25">
@@ -804,7 +884,7 @@
         <v>10</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.25">
@@ -812,7 +892,7 @@
         <v>11</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.25">
@@ -820,7 +900,7 @@
         <v>12</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>45</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.25">
@@ -828,32 +908,47 @@
         <v>13</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C21" s="8">
         <v>14</v>
       </c>
+      <c r="D21" s="3" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C22" s="8">
         <v>15</v>
       </c>
+      <c r="D22" s="3" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C23" s="8">
         <v>16</v>
       </c>
+      <c r="D23" s="3" t="s">
+        <v>62</v>
+      </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C24" s="8">
         <v>17</v>
       </c>
+      <c r="D24" s="3" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C25" s="8">
         <v>18</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.25">
@@ -879,10 +974,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBDA2708-75B5-4180-9C4B-08F40A18D95A}">
-  <dimension ref="A1:L27"/>
+  <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G35" sqref="G35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -914,7 +1009,7 @@
         <v>9</v>
       </c>
       <c r="B2" s="19" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -927,10 +1022,10 @@
     </row>
     <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C4" s="18"/>
       <c r="D4" s="18"/>
@@ -943,7 +1038,7 @@
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="31" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B6" s="32" t="s">
         <v>6</v>
@@ -952,13 +1047,13 @@
         <v>5</v>
       </c>
       <c r="D6" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E6" s="31" t="s">
-        <v>16</v>
-      </c>
       <c r="F6" s="31" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G6" s="32" t="s">
         <v>0</v>
@@ -984,7 +1079,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="10"/>
@@ -1006,7 +1101,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C8" s="10"/>
       <c r="D8" s="10"/>
@@ -1039,7 +1134,7 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C10" s="6"/>
       <c r="D10" s="6"/>
@@ -1059,7 +1154,7 @@
       </c>
       <c r="B11" s="6"/>
       <c r="C11" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G11" s="6"/>
       <c r="H11" s="6"/>
@@ -1069,10 +1164,10 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="12" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="G12" s="6"/>
       <c r="H12" s="6"/>
@@ -1082,21 +1177,27 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="12" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B13" s="6"/>
       <c r="D13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="G13" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="G13" s="37">
+        <v>0.5</v>
+      </c>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
+      <c r="J13" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K13" s="6"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="12"/>
-      <c r="D14" s="2"/>
+      <c r="D14" s="2" t="s">
+        <v>41</v>
+      </c>
       <c r="G14" s="6"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -1106,7 +1207,9 @@
     <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="12"/>
       <c r="B15" s="6"/>
-      <c r="D15" s="2"/>
+      <c r="D15" s="2" t="s">
+        <v>46</v>
+      </c>
       <c r="G15" s="6"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -1139,78 +1242,194 @@
       </c>
       <c r="B18" s="6"/>
       <c r="C18" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="G18" s="6"/>
+        <v>13</v>
+      </c>
+      <c r="G18" s="37">
+        <v>0.5</v>
+      </c>
       <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="I18" s="37">
+        <v>0.5</v>
+      </c>
       <c r="J18" s="6"/>
       <c r="K18" s="6"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="12" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B19" s="6"/>
       <c r="D19" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
+      <c r="J19" s="37">
+        <v>1</v>
+      </c>
       <c r="K19" s="6"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="6"/>
       <c r="C20" s="6"/>
-      <c r="D20" s="5"/>
+      <c r="D20" s="5" t="s">
+        <v>42</v>
+      </c>
       <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="6"/>
+      <c r="H20" s="37">
+        <v>0.5</v>
+      </c>
+      <c r="I20" s="37"/>
+      <c r="J20" s="37">
+        <v>0.5</v>
+      </c>
       <c r="K20" s="6"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
-      <c r="D21" s="5"/>
+      <c r="D21" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G21" s="36">
+        <v>0.1</v>
+      </c>
+      <c r="H21" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="J21" s="36">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
-      <c r="D22" s="5"/>
+      <c r="D22" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" s="38">
+        <v>0.3</v>
+      </c>
+      <c r="G22" s="36">
+        <v>0.3</v>
+      </c>
+      <c r="I22" s="36">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="12"/>
-      <c r="D23" s="5"/>
+      <c r="D23" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H23" s="36">
+        <v>1</v>
+      </c>
     </row>
     <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="9">
         <v>4</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E25" s="9">
         <v>3</v>
       </c>
-      <c r="F25" s="14">
-        <v>0</v>
+      <c r="F25" s="14"/>
+      <c r="K25" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C26" t="s">
+        <v>47</v>
+      </c>
+      <c r="K26" s="36">
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A27" s="9">
+      <c r="C27" t="s">
+        <v>48</v>
+      </c>
+      <c r="K27" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C28" t="s">
+        <v>49</v>
+      </c>
+      <c r="K28" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C29" t="s">
+        <v>50</v>
+      </c>
+      <c r="K29" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I30" s="36">
+        <v>0.2</v>
+      </c>
+      <c r="J30" s="36">
+        <v>0.8</v>
+      </c>
+      <c r="K30" s="36"/>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A31" s="9">
         <v>5</v>
       </c>
-      <c r="B27" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27" s="8">
+      <c r="B31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E31" s="8">
         <v>4</v>
       </c>
-      <c r="F27" s="14">
-        <v>0</v>
-      </c>
+      <c r="F31" s="14"/>
+      <c r="K31" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="C32" t="s">
+        <v>52</v>
+      </c>
+      <c r="K32" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="C33" t="s">
+        <v>53</v>
+      </c>
+      <c r="K33" s="36">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B38" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C38" s="39" t="s">
+        <v>66</v>
+      </c>
+      <c r="D38" s="39"/>
+    </row>
+    <row r="40" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="F40"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
